--- a/plotting_and_statistics_script_with_demo_data/output_files_of_py_script/2025-12-03 08_15_00_statistics_TEMP_LOG_demo_data.xlsx
+++ b/plotting_and_statistics_script_with_demo_data/output_files_of_py_script/2025-12-03 08_15_00_statistics_TEMP_LOG_demo_data.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>duration</t>
+          <t>duration [d]</t>
         </is>
       </c>
     </row>
